--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="191">
   <si>
     <t>year</t>
   </si>
@@ -364,7 +364,7 @@
     <t>['West Germany', 'Spain']</t>
   </si>
   <si>
-    <t>['West Germany', 'Portugal']</t>
+    <t>['Portugal', 'West Germany']</t>
   </si>
   <si>
     <t>['Portugal', 'Spain']</t>
@@ -373,16 +373,16 @@
     <t>['West Germany', 'Italy']</t>
   </si>
   <si>
-    <t>['Soviet Union', 'Republic of Ireland']</t>
-  </si>
-  <si>
-    <t>['Soviet Union', 'Netherlands']</t>
+    <t>['Republic of Ireland', 'Soviet Union']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Soviet Union']</t>
   </si>
   <si>
     <t>['France', 'Sweden']</t>
   </si>
   <si>
-    <t>['Sweden', 'England']</t>
+    <t>['England', 'Sweden']</t>
   </si>
   <si>
     <t>['Sweden', 'Denmark']</t>
@@ -391,19 +391,22 @@
     <t>['Germany', 'Netherlands']</t>
   </si>
   <si>
+    <t>['Netherlands', 'Germany']</t>
+  </si>
+  <si>
     <t>['France', 'Bulgaria']</t>
   </si>
   <si>
-    <t>['Bulgaria', 'Spain']</t>
+    <t>['Spain', 'Bulgaria']</t>
   </si>
   <si>
     <t>['France', 'Spain']</t>
   </si>
   <si>
-    <t>['England', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Scotland', 'England']</t>
+    <t>['Netherlands', 'England']</t>
+  </si>
+  <si>
+    <t>['England', 'Scotland']</t>
   </si>
   <si>
     <t>['Portugal', 'Croatia']</t>
@@ -418,7 +421,7 @@
     <t>['Belgium', 'Italy']</t>
   </si>
   <si>
-    <t>['Italy', 'Turkey']</t>
+    <t>['Turkey', 'Italy']</t>
   </si>
   <si>
     <t>['Portugal', 'England']</t>
@@ -430,31 +433,34 @@
     <t>['Norway', 'FR Yugoslavia']</t>
   </si>
   <si>
-    <t>['FR Yugoslavia', 'Spain']</t>
-  </si>
-  <si>
-    <t>['France', 'Netherlands']</t>
+    <t>['Spain', 'FR Yugoslavia']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'France']</t>
   </si>
   <si>
     <t>['Greece', 'Spain']</t>
   </si>
   <si>
-    <t>['Greece', 'Portugal']</t>
+    <t>['Portugal', 'Greece']</t>
+  </si>
+  <si>
+    <t>['England', 'France']</t>
+  </si>
+  <si>
+    <t>['Croatia', 'France']</t>
   </si>
   <si>
     <t>['France', 'England']</t>
   </si>
   <si>
-    <t>['France', 'Croatia']</t>
-  </si>
-  <si>
     <t>['Czech Republic', 'Netherlands']</t>
   </si>
   <si>
     <t>['Czech Republic', 'Portugal']</t>
   </si>
   <si>
-    <t>['Portugal', 'Turkey']</t>
+    <t>['Turkey', 'Portugal']</t>
   </si>
   <si>
     <t>['Germany', 'Croatia']</t>
@@ -463,16 +469,16 @@
     <t>['Romania', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Italy', 'Netherlands']</t>
+    <t>['Netherlands', 'Italy']</t>
   </si>
   <si>
     <t>['Sweden', 'Spain']</t>
   </si>
   <si>
-    <t>['Russia', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Russia', 'Czech Republic']</t>
+    <t>['Spain', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Russia']</t>
   </si>
   <si>
     <t>['Germany', 'Portugal']</t>
@@ -481,7 +487,7 @@
     <t>['Germany', 'Denmark']</t>
   </si>
   <si>
-    <t>['Spain', 'Croatia']</t>
+    <t>['Croatia', 'Spain']</t>
   </si>
   <si>
     <t>['Italy', 'Spain']</t>
@@ -490,85 +496,94 @@
     <t>['Romania', 'France', 'Switzerland']</t>
   </si>
   <si>
-    <t>['France', 'Albania', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Wales', 'England']</t>
-  </si>
-  <si>
-    <t>['Poland', 'Germany', 'Northern Ireland']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Spain', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Turkey', 'Spain', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Iceland', 'Hungary', 'Portugal']</t>
+    <t>['Albania', 'France', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'England', 'Wales']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Northern Ireland', 'Poland']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Croatia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Turkey', 'Croatia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Hungary', 'Iceland']</t>
   </si>
   <si>
     <t>['Belgium', 'Sweden', 'Italy']</t>
   </si>
   <si>
-    <t>['Belgium', 'Italy', 'Republic of Ireland']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Wales', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Ukraine', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Russia', 'Belgium', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Finland', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'England', 'Croatia']</t>
+    <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Wales', 'Italy', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Austria', 'Ukraine']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Ukraine', 'Austria']</t>
+  </si>
+  <si>
+    <t>['Finland', 'Belgium', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Finland', 'Belgium', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Croatia', 'England']</t>
   </si>
   <si>
     <t>['Slovakia', 'Sweden', 'Spain']</t>
   </si>
   <si>
-    <t>['France', 'Germany', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Hungary', 'France', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Scotland', 'Germany', 'Switzerland']</t>
+    <t>['Germany', 'Portugal', 'France']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Hungary', 'France']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Germany', 'France']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Scotland', 'Switzerland']</t>
   </si>
   <si>
     <t>['Germany', 'Hungary', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Albania', 'Italy', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Spain', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['France', 'Austria', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'England', 'Slovenia']</t>
+    <t>['Italy', 'Albania', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Croatia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'France', 'Austria']</t>
+  </si>
+  <si>
+    <t>['Austria', 'France', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Slovenia', 'England', 'Denmark']</t>
   </si>
   <si>
     <t>['Romania', 'Belgium', 'Ukraine']</t>
   </si>
   <si>
-    <t>['Romania', 'Belgium', 'Slovakia']</t>
+    <t>['Romania', 'Slovakia', 'Belgium']</t>
   </si>
   <si>
     <t>['Slovakia', 'Belgium', 'Ukraine']</t>
   </si>
   <si>
-    <t>['Czech Republic', 'Portugal', 'Turkey']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Turkey', 'Georgia']</t>
+    <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+  </si>
+  <si>
+    <t>['Turkey', 'Portugal', 'Georgia']</t>
   </si>
   <si>
     <t>tie</t>
@@ -2922,7 +2937,7 @@
         <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K41" t="s">
         <v>81</v>
@@ -2972,7 +2987,7 @@
         <v>80</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s">
         <v>81</v>
@@ -3022,7 +3037,7 @@
         <v>81</v>
       </c>
       <c r="J43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
@@ -3072,7 +3087,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s">
         <v>81</v>
@@ -3122,7 +3137,7 @@
         <v>90</v>
       </c>
       <c r="J45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s">
         <v>81</v>
@@ -3172,7 +3187,7 @@
         <v>81</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s">
         <v>81</v>
@@ -3222,7 +3237,7 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
@@ -3263,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K48" t="s">
         <v>108</v>
@@ -3313,7 +3328,7 @@
         <v>88</v>
       </c>
       <c r="J49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K49" t="s">
         <v>88</v>
@@ -3363,7 +3378,7 @@
         <v>73</v>
       </c>
       <c r="J50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s">
         <v>73</v>
@@ -3413,7 +3428,7 @@
         <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K51" t="s">
         <v>73</v>
@@ -3463,7 +3478,7 @@
         <v>73</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K52" t="s">
         <v>73</v>
@@ -3513,7 +3528,7 @@
         <v>108</v>
       </c>
       <c r="J53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K53" t="s">
         <v>73</v>
@@ -3563,7 +3578,7 @@
         <v>88</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K54" t="s">
         <v>73</v>
@@ -3613,7 +3628,7 @@
         <v>73</v>
       </c>
       <c r="J55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K55" t="s">
         <v>73</v>
@@ -3654,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s">
         <v>78</v>
@@ -3701,7 +3716,7 @@
         <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s">
         <v>78</v>
@@ -3751,7 +3766,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s">
         <v>78</v>
@@ -3801,7 +3816,7 @@
         <v>80</v>
       </c>
       <c r="J59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K59" t="s">
         <v>78</v>
@@ -3851,7 +3866,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K60" t="s">
         <v>78</v>
@@ -3901,7 +3916,7 @@
         <v>78</v>
       </c>
       <c r="J61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K61" t="s">
         <v>78</v>
@@ -3951,7 +3966,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K62" t="s">
         <v>78</v>
@@ -4001,7 +4016,7 @@
         <v>81</v>
       </c>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K63" t="s">
         <v>78</v>
@@ -4042,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s">
         <v>83</v>
@@ -4089,7 +4104,7 @@
         <v>75</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s">
         <v>83</v>
@@ -4136,7 +4151,7 @@
         <v>72</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s">
         <v>83</v>
@@ -4186,7 +4201,7 @@
         <v>75</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s">
         <v>75</v>
@@ -4236,7 +4251,7 @@
         <v>75</v>
       </c>
       <c r="J68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s">
         <v>75</v>
@@ -4286,7 +4301,7 @@
         <v>72</v>
       </c>
       <c r="J69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s">
         <v>75</v>
@@ -4336,7 +4351,7 @@
         <v>72</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s">
         <v>75</v>
@@ -4386,7 +4401,7 @@
         <v>75</v>
       </c>
       <c r="J71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s">
         <v>75</v>
@@ -4436,7 +4451,7 @@
         <v>72</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s">
         <v>75</v>
@@ -4477,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K73" t="s">
         <v>90</v>
@@ -4524,7 +4539,7 @@
         <v>90</v>
       </c>
       <c r="J74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s">
         <v>90</v>
@@ -4574,7 +4589,7 @@
         <v>94</v>
       </c>
       <c r="J75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K75" t="s">
         <v>90</v>
@@ -4627,7 +4642,7 @@
         <v>94</v>
       </c>
       <c r="J76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K76" t="s">
         <v>90</v>
@@ -4680,7 +4695,7 @@
         <v>85</v>
       </c>
       <c r="J77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s">
         <v>90</v>
@@ -4733,7 +4748,7 @@
         <v>85</v>
       </c>
       <c r="J78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s">
         <v>90</v>
@@ -4783,7 +4798,7 @@
         <v>85</v>
       </c>
       <c r="J79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s">
         <v>90</v>
@@ -4833,7 +4848,7 @@
         <v>94</v>
       </c>
       <c r="J80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K80" t="s">
         <v>90</v>
@@ -4874,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K81" t="s">
         <v>76</v>
@@ -4921,7 +4936,7 @@
         <v>104</v>
       </c>
       <c r="J82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K82" t="s">
         <v>76</v>
@@ -4974,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="J83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K83" t="s">
         <v>76</v>
@@ -5027,7 +5042,7 @@
         <v>84</v>
       </c>
       <c r="J84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K84" t="s">
         <v>76</v>
@@ -5077,7 +5092,7 @@
         <v>84</v>
       </c>
       <c r="J85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K85" t="s">
         <v>76</v>
@@ -5127,7 +5142,7 @@
         <v>79</v>
       </c>
       <c r="J86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K86" t="s">
         <v>76</v>
@@ -5177,7 +5192,7 @@
         <v>76</v>
       </c>
       <c r="J87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K87" t="s">
         <v>76</v>
@@ -5218,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K88" t="s">
         <v>75</v>
@@ -5265,7 +5280,7 @@
         <v>90</v>
       </c>
       <c r="J89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K89" t="s">
         <v>75</v>
@@ -5318,7 +5333,7 @@
         <v>82</v>
       </c>
       <c r="J90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K90" t="s">
         <v>75</v>
@@ -5368,7 +5383,7 @@
         <v>75</v>
       </c>
       <c r="J91" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K91" t="s">
         <v>75</v>
@@ -5418,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K92" t="s">
         <v>75</v>
@@ -5471,7 +5486,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K93" t="s">
         <v>75</v>
@@ -5521,7 +5536,7 @@
         <v>82</v>
       </c>
       <c r="J94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K94" t="s">
         <v>75</v>
@@ -5574,7 +5589,7 @@
         <v>75</v>
       </c>
       <c r="J95" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K95" t="s">
         <v>75</v>
@@ -5627,7 +5642,7 @@
         <v>75</v>
       </c>
       <c r="J96" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K96" t="s">
         <v>75</v>
@@ -5680,7 +5695,7 @@
         <v>82</v>
       </c>
       <c r="J97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K97" t="s">
         <v>75</v>
@@ -5721,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K98" t="s">
         <v>87</v>
@@ -5768,7 +5783,7 @@
         <v>109</v>
       </c>
       <c r="J99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K99" t="s">
         <v>87</v>
@@ -5818,7 +5833,7 @@
         <v>87</v>
       </c>
       <c r="J100" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K100" t="s">
         <v>87</v>
@@ -5868,7 +5883,7 @@
         <v>88</v>
       </c>
       <c r="J101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K101" t="s">
         <v>87</v>
@@ -5918,7 +5933,7 @@
         <v>87</v>
       </c>
       <c r="J102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K102" t="s">
         <v>87</v>
@@ -5968,7 +5983,7 @@
         <v>88</v>
       </c>
       <c r="J103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K103" t="s">
         <v>87</v>
@@ -6018,7 +6033,7 @@
         <v>87</v>
       </c>
       <c r="J104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K104" t="s">
         <v>87</v>
@@ -6068,7 +6083,7 @@
         <v>88</v>
       </c>
       <c r="J105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K105" t="s">
         <v>87</v>
@@ -6118,7 +6133,7 @@
         <v>88</v>
       </c>
       <c r="J106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K106" t="s">
         <v>88</v>
@@ -6159,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K107" t="s">
         <v>73</v>
@@ -6206,7 +6221,7 @@
         <v>94</v>
       </c>
       <c r="J108" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K108" t="s">
         <v>73</v>
@@ -6256,7 +6271,7 @@
         <v>73</v>
       </c>
       <c r="J109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K109" t="s">
         <v>73</v>
@@ -6306,7 +6321,7 @@
         <v>81</v>
       </c>
       <c r="J110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K110" t="s">
         <v>73</v>
@@ -6356,7 +6371,7 @@
         <v>73</v>
       </c>
       <c r="J111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K111" t="s">
         <v>73</v>
@@ -6406,7 +6421,7 @@
         <v>81</v>
       </c>
       <c r="J112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K112" t="s">
         <v>73</v>
@@ -6456,7 +6471,7 @@
         <v>81</v>
       </c>
       <c r="J113" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K113" t="s">
         <v>81</v>
@@ -6506,7 +6521,7 @@
         <v>94</v>
       </c>
       <c r="J114" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K114" t="s">
         <v>81</v>
@@ -6556,7 +6571,7 @@
         <v>94</v>
       </c>
       <c r="J115" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K115" t="s">
         <v>81</v>
@@ -6597,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K116" t="s">
         <v>93</v>
@@ -6644,7 +6659,7 @@
         <v>75</v>
       </c>
       <c r="J117" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K117" t="s">
         <v>93</v>
@@ -6694,7 +6709,7 @@
         <v>85</v>
       </c>
       <c r="J118" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K118" t="s">
         <v>88</v>
@@ -6744,7 +6759,7 @@
         <v>85</v>
       </c>
       <c r="J119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K119" t="s">
         <v>88</v>
@@ -6794,7 +6809,7 @@
         <v>93</v>
       </c>
       <c r="J120" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K120" t="s">
         <v>88</v>
@@ -6844,7 +6859,7 @@
         <v>75</v>
       </c>
       <c r="J121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K121" t="s">
         <v>75</v>
@@ -6885,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K122" t="s">
         <v>73</v>
@@ -6935,7 +6950,7 @@
         <v>83</v>
       </c>
       <c r="J123" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K123" t="s">
         <v>73</v>
@@ -6985,7 +7000,7 @@
         <v>73</v>
       </c>
       <c r="J124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K124" t="s">
         <v>73</v>
@@ -7035,7 +7050,7 @@
         <v>89</v>
       </c>
       <c r="J125" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K125" t="s">
         <v>73</v>
@@ -7085,7 +7100,7 @@
         <v>78</v>
       </c>
       <c r="J126" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K126" t="s">
         <v>73</v>
@@ -7135,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K127" t="s">
         <v>78</v>
@@ -7185,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="J128" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K128" t="s">
         <v>78</v>
@@ -7235,7 +7250,7 @@
         <v>83</v>
       </c>
       <c r="J129" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K129" t="s">
         <v>78</v>
@@ -7285,7 +7300,7 @@
         <v>73</v>
       </c>
       <c r="J130" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K130" t="s">
         <v>73</v>
@@ -7335,7 +7350,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K131" t="s">
         <v>73</v>
@@ -7385,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="J132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K132" t="s">
         <v>73</v>
@@ -7817,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K141" t="s">
         <v>94</v>
@@ -7864,7 +7879,7 @@
         <v>110</v>
       </c>
       <c r="J142" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K142" t="s">
         <v>94</v>
@@ -7914,7 +7929,7 @@
         <v>90</v>
       </c>
       <c r="J143" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K143" t="s">
         <v>94</v>
@@ -7964,7 +7979,7 @@
         <v>81</v>
       </c>
       <c r="J144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K144" t="s">
         <v>94</v>
@@ -8014,7 +8029,7 @@
         <v>94</v>
       </c>
       <c r="J145" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s">
         <v>94</v>
@@ -8064,7 +8079,7 @@
         <v>81</v>
       </c>
       <c r="J146" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s">
         <v>94</v>
@@ -8114,7 +8129,7 @@
         <v>94</v>
       </c>
       <c r="J147" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s">
         <v>94</v>
@@ -8164,7 +8179,7 @@
         <v>81</v>
       </c>
       <c r="J148" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s">
         <v>94</v>
@@ -8205,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K149" t="s">
         <v>75</v>
@@ -8252,7 +8267,7 @@
         <v>75</v>
       </c>
       <c r="J150" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K150" t="s">
         <v>75</v>
@@ -8302,7 +8317,7 @@
         <v>94</v>
       </c>
       <c r="J151" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K151" t="s">
         <v>75</v>
@@ -8352,7 +8367,7 @@
         <v>94</v>
       </c>
       <c r="J152" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K152" t="s">
         <v>75</v>
@@ -8402,7 +8417,7 @@
         <v>89</v>
       </c>
       <c r="J153" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K153" t="s">
         <v>75</v>
@@ -8452,7 +8467,7 @@
         <v>84</v>
       </c>
       <c r="J154" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K154" t="s">
         <v>75</v>
@@ -8502,7 +8517,7 @@
         <v>89</v>
       </c>
       <c r="J155" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K155" t="s">
         <v>75</v>
@@ -8552,7 +8567,7 @@
         <v>84</v>
       </c>
       <c r="J156" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K156" t="s">
         <v>75</v>
@@ -8602,7 +8617,7 @@
         <v>84</v>
       </c>
       <c r="J157" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K157" t="s">
         <v>75</v>
@@ -8643,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K158" t="s">
         <v>83</v>
@@ -8690,7 +8705,7 @@
         <v>83</v>
       </c>
       <c r="J159" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K159" t="s">
         <v>83</v>
@@ -8737,7 +8752,7 @@
         <v>90</v>
       </c>
       <c r="J160" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K160" t="s">
         <v>83</v>
@@ -8787,7 +8802,7 @@
         <v>90</v>
       </c>
       <c r="J161" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K161" t="s">
         <v>83</v>
@@ -8837,7 +8852,7 @@
         <v>83</v>
       </c>
       <c r="J162" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K162" t="s">
         <v>83</v>
@@ -8878,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K163" t="s">
         <v>81</v>
@@ -8925,7 +8940,7 @@
         <v>82</v>
       </c>
       <c r="J164" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K164" t="s">
         <v>81</v>
@@ -8972,7 +8987,7 @@
         <v>76</v>
       </c>
       <c r="J165" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K165" t="s">
         <v>81</v>
@@ -9022,7 +9037,7 @@
         <v>76</v>
       </c>
       <c r="J166" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K166" t="s">
         <v>81</v>
@@ -9072,7 +9087,7 @@
         <v>81</v>
       </c>
       <c r="J167" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K167" t="s">
         <v>81</v>
@@ -9122,7 +9137,7 @@
         <v>76</v>
       </c>
       <c r="J168" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K168" t="s">
         <v>81</v>
@@ -9172,7 +9187,7 @@
         <v>81</v>
       </c>
       <c r="J169" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K169" t="s">
         <v>81</v>
@@ -9213,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K170" t="s">
         <v>88</v>
@@ -9260,7 +9275,7 @@
         <v>79</v>
       </c>
       <c r="J171" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K171" t="s">
         <v>88</v>
@@ -9310,7 +9325,7 @@
         <v>85</v>
       </c>
       <c r="J172" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K172" t="s">
         <v>88</v>
@@ -9360,7 +9375,7 @@
         <v>93</v>
       </c>
       <c r="J173" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K173" t="s">
         <v>88</v>
@@ -9410,7 +9425,7 @@
         <v>85</v>
       </c>
       <c r="J174" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K174" t="s">
         <v>88</v>
@@ -9460,7 +9475,7 @@
         <v>88</v>
       </c>
       <c r="J175" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K175" t="s">
         <v>88</v>
@@ -9510,7 +9525,7 @@
         <v>88</v>
       </c>
       <c r="J176" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K176" t="s">
         <v>88</v>
@@ -9551,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K177" t="s">
         <v>85</v>
@@ -9598,7 +9613,7 @@
         <v>91</v>
       </c>
       <c r="J178" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K178" t="s">
         <v>85</v>
@@ -9645,7 +9660,7 @@
         <v>85</v>
       </c>
       <c r="J179" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K179" t="s">
         <v>85</v>
@@ -9695,7 +9710,7 @@
         <v>93</v>
       </c>
       <c r="J180" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K180" t="s">
         <v>85</v>
@@ -9745,7 +9760,7 @@
         <v>94</v>
       </c>
       <c r="J181" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K181" t="s">
         <v>94</v>
@@ -9786,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K182" t="s">
         <v>90</v>
@@ -9836,7 +9851,7 @@
         <v>81</v>
       </c>
       <c r="J183" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K183" t="s">
         <v>90</v>
@@ -9886,7 +9901,7 @@
         <v>90</v>
       </c>
       <c r="J184" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K184" t="s">
         <v>90</v>
@@ -9936,7 +9951,7 @@
         <v>72</v>
       </c>
       <c r="J185" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K185" t="s">
         <v>90</v>
@@ -9986,7 +10001,7 @@
         <v>75</v>
       </c>
       <c r="J186" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K186" t="s">
         <v>90</v>
@@ -10036,7 +10051,7 @@
         <v>75</v>
       </c>
       <c r="J187" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K187" t="s">
         <v>90</v>
@@ -10089,7 +10104,7 @@
         <v>90</v>
       </c>
       <c r="J188" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K188" t="s">
         <v>90</v>
@@ -10130,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K189" t="s">
         <v>88</v>
@@ -10177,7 +10192,7 @@
         <v>88</v>
       </c>
       <c r="J190" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K190" t="s">
         <v>88</v>
@@ -10224,7 +10239,7 @@
         <v>77</v>
       </c>
       <c r="J191" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K191" t="s">
         <v>88</v>
@@ -10274,7 +10289,7 @@
         <v>76</v>
       </c>
       <c r="J192" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K192" t="s">
         <v>88</v>
@@ -10324,7 +10339,7 @@
         <v>88</v>
       </c>
       <c r="J193" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K193" t="s">
         <v>88</v>
@@ -10374,7 +10389,7 @@
         <v>76</v>
       </c>
       <c r="J194" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K194" t="s">
         <v>88</v>
@@ -10415,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K195" t="s">
         <v>73</v>
@@ -10462,7 +10477,7 @@
         <v>96</v>
       </c>
       <c r="J196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K196" t="s">
         <v>73</v>
@@ -10509,7 +10524,7 @@
         <v>73</v>
       </c>
       <c r="J197" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K197" t="s">
         <v>73</v>
@@ -10559,7 +10574,7 @@
         <v>78</v>
       </c>
       <c r="J198" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K198" t="s">
         <v>78</v>
@@ -10609,7 +10624,7 @@
         <v>79</v>
       </c>
       <c r="J199" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K199" t="s">
         <v>78</v>
@@ -10659,7 +10674,7 @@
         <v>79</v>
       </c>
       <c r="J200" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K200" t="s">
         <v>78</v>
@@ -10700,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K201" t="s">
         <v>73</v>
@@ -10747,7 +10762,7 @@
         <v>102</v>
       </c>
       <c r="J202" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K202" t="s">
         <v>73</v>
@@ -10794,7 +10809,7 @@
         <v>73</v>
       </c>
       <c r="J203" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K203" t="s">
         <v>73</v>
@@ -10844,7 +10859,7 @@
         <v>102</v>
       </c>
       <c r="J204" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K204" t="s">
         <v>73</v>
@@ -10885,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K205" t="s">
         <v>78</v>
@@ -10932,7 +10947,7 @@
         <v>111</v>
       </c>
       <c r="J206" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K206" t="s">
         <v>78</v>
@@ -10982,7 +10997,7 @@
         <v>78</v>
       </c>
       <c r="J207" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K207" t="s">
         <v>78</v>
@@ -11035,7 +11050,7 @@
         <v>111</v>
       </c>
       <c r="J208" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K208" t="s">
         <v>111</v>
@@ -11085,7 +11100,7 @@
         <v>111</v>
       </c>
       <c r="J209" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K209" t="s">
         <v>111</v>
@@ -11135,7 +11150,7 @@
         <v>111</v>
       </c>
       <c r="J210" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K210" t="s">
         <v>111</v>
@@ -11176,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K211" t="s">
         <v>90</v>
@@ -11223,7 +11238,7 @@
         <v>91</v>
       </c>
       <c r="J212" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K212" t="s">
         <v>90</v>
@@ -11270,7 +11285,7 @@
         <v>90</v>
       </c>
       <c r="J213" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K213" t="s">
         <v>90</v>
@@ -11320,7 +11335,7 @@
         <v>90</v>
       </c>
       <c r="J214" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K214" t="s">
         <v>90</v>
@@ -11370,7 +11385,7 @@
         <v>91</v>
       </c>
       <c r="J215" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K215" t="s">
         <v>90</v>
@@ -11411,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K216" t="s">
         <v>88</v>
@@ -11458,7 +11473,7 @@
         <v>84</v>
       </c>
       <c r="J217" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K217" t="s">
         <v>88</v>
@@ -11508,7 +11523,7 @@
         <v>88</v>
       </c>
       <c r="J218" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K218" t="s">
         <v>88</v>
@@ -11558,7 +11573,7 @@
         <v>84</v>
       </c>
       <c r="J219" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K219" t="s">
         <v>88</v>
@@ -11608,7 +11623,7 @@
         <v>83</v>
       </c>
       <c r="J220" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K220" t="s">
         <v>88</v>
@@ -11658,7 +11673,7 @@
         <v>84</v>
       </c>
       <c r="J221" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K221" t="s">
         <v>88</v>
@@ -11708,7 +11723,7 @@
         <v>83</v>
       </c>
       <c r="J222" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K222" t="s">
         <v>83</v>
@@ -11749,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K223" t="s">
         <v>99</v>
@@ -11799,7 +11814,7 @@
         <v>98</v>
       </c>
       <c r="J224" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K224" t="s">
         <v>99</v>
@@ -11849,7 +11864,7 @@
         <v>99</v>
       </c>
       <c r="J225" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K225" t="s">
         <v>99</v>
@@ -11899,7 +11914,7 @@
         <v>75</v>
       </c>
       <c r="J226" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K226" t="s">
         <v>99</v>
@@ -11949,7 +11964,7 @@
         <v>99</v>
       </c>
       <c r="J227" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K227" t="s">
         <v>99</v>
@@ -11999,7 +12014,7 @@
         <v>75</v>
       </c>
       <c r="J228" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K228" t="s">
         <v>99</v>
@@ -12049,7 +12064,7 @@
         <v>99</v>
       </c>
       <c r="J229" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K229" t="s">
         <v>99</v>
@@ -12099,7 +12114,7 @@
         <v>92</v>
       </c>
       <c r="J230" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K230" t="s">
         <v>99</v>
@@ -12149,7 +12164,7 @@
         <v>75</v>
       </c>
       <c r="J231" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K231" t="s">
         <v>99</v>
@@ -12199,7 +12214,7 @@
         <v>98</v>
       </c>
       <c r="J232" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K232" t="s">
         <v>99</v>
@@ -12240,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K233" t="s">
         <v>76</v>
@@ -12287,7 +12302,7 @@
         <v>77</v>
       </c>
       <c r="J234" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K234" t="s">
         <v>76</v>
@@ -12334,7 +12349,7 @@
         <v>104</v>
       </c>
       <c r="J235" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K235" t="s">
         <v>76</v>
@@ -12384,7 +12399,7 @@
         <v>104</v>
       </c>
       <c r="J236" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K236" t="s">
         <v>76</v>
@@ -12434,7 +12449,7 @@
         <v>77</v>
       </c>
       <c r="J237" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K237" t="s">
         <v>76</v>
@@ -12484,7 +12499,7 @@
         <v>89</v>
       </c>
       <c r="J238" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K238" t="s">
         <v>76</v>
@@ -12534,7 +12549,7 @@
         <v>89</v>
       </c>
       <c r="J239" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K239" t="s">
         <v>76</v>
@@ -12584,7 +12599,7 @@
         <v>84</v>
       </c>
       <c r="J240" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K240" t="s">
         <v>76</v>
@@ -12634,7 +12649,7 @@
         <v>89</v>
       </c>
       <c r="J241" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K241" t="s">
         <v>76</v>
@@ -12675,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K242" t="s">
         <v>76</v>
@@ -12722,7 +12737,7 @@
         <v>111</v>
       </c>
       <c r="J243" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K243" t="s">
         <v>76</v>
@@ -12772,7 +12787,7 @@
         <v>76</v>
       </c>
       <c r="J244" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K244" t="s">
         <v>76</v>
@@ -12813,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K245" t="s">
         <v>81</v>
@@ -12860,7 +12875,7 @@
         <v>92</v>
       </c>
       <c r="J246" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K246" t="s">
         <v>81</v>
@@ -12910,7 +12925,7 @@
         <v>92</v>
       </c>
       <c r="J247" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K247" t="s">
         <v>81</v>
@@ -12957,7 +12972,7 @@
         <v>81</v>
       </c>
       <c r="J248" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K248" t="s">
         <v>81</v>
@@ -13007,7 +13022,7 @@
         <v>81</v>
       </c>
       <c r="J249" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K249" t="s">
         <v>81</v>
@@ -13057,7 +13072,7 @@
         <v>81</v>
       </c>
       <c r="J250" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K250" t="s">
         <v>81</v>
@@ -13107,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="J251" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K251" t="s">
         <v>81</v>
@@ -13148,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K252" t="s">
         <v>104</v>
@@ -13195,7 +13210,7 @@
         <v>104</v>
       </c>
       <c r="J253" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K253" t="s">
         <v>104</v>
@@ -13245,7 +13260,7 @@
         <v>104</v>
       </c>
       <c r="J254" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K254" t="s">
         <v>104</v>
@@ -13295,7 +13310,7 @@
         <v>104</v>
       </c>
       <c r="J255" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K255" t="s">
         <v>104</v>
@@ -13345,7 +13360,7 @@
         <v>72</v>
       </c>
       <c r="J256" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K256" t="s">
         <v>104</v>
@@ -13395,7 +13410,7 @@
         <v>72</v>
       </c>
       <c r="J257" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K257" t="s">
         <v>104</v>
@@ -13445,7 +13460,7 @@
         <v>85</v>
       </c>
       <c r="J258" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K258" t="s">
         <v>104</v>
@@ -13495,7 +13510,7 @@
         <v>72</v>
       </c>
       <c r="J259" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K259" t="s">
         <v>104</v>
@@ -13545,7 +13560,7 @@
         <v>72</v>
       </c>
       <c r="J260" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K260" t="s">
         <v>104</v>
@@ -13586,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K261" t="s">
         <v>94</v>
@@ -13633,7 +13648,7 @@
         <v>78</v>
       </c>
       <c r="J262" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K262" t="s">
         <v>94</v>
@@ -13683,7 +13698,7 @@
         <v>78</v>
       </c>
       <c r="J263" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K263" t="s">
         <v>78</v>
@@ -13733,7 +13748,7 @@
         <v>83</v>
       </c>
       <c r="J264" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K264" t="s">
         <v>78</v>
@@ -13783,7 +13798,7 @@
         <v>80</v>
       </c>
       <c r="J265" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K265" t="s">
         <v>78</v>
@@ -13833,7 +13848,7 @@
         <v>83</v>
       </c>
       <c r="J266" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K266" t="s">
         <v>78</v>
@@ -13883,7 +13898,7 @@
         <v>83</v>
       </c>
       <c r="J267" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K267" t="s">
         <v>78</v>
@@ -13933,7 +13948,7 @@
         <v>79</v>
       </c>
       <c r="J268" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K268" t="s">
         <v>79</v>
@@ -13983,7 +13998,7 @@
         <v>79</v>
       </c>
       <c r="J269" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K269" t="s">
         <v>79</v>
@@ -14033,7 +14048,7 @@
         <v>91</v>
       </c>
       <c r="J270" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K270" t="s">
         <v>79</v>
@@ -14083,7 +14098,7 @@
         <v>91</v>
       </c>
       <c r="J271" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K271" t="s">
         <v>88</v>
@@ -14133,7 +14148,7 @@
         <v>79</v>
       </c>
       <c r="J272" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K272" t="s">
         <v>79</v>
@@ -14174,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K273" t="s">
         <v>79</v>
@@ -14221,7 +14236,7 @@
         <v>88</v>
       </c>
       <c r="J274" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K274" t="s">
         <v>79</v>
@@ -14271,7 +14286,7 @@
         <v>88</v>
       </c>
       <c r="J275" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K275" t="s">
         <v>79</v>
@@ -14321,7 +14336,7 @@
         <v>88</v>
       </c>
       <c r="J276" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K276" t="s">
         <v>79</v>
@@ -14371,7 +14386,7 @@
         <v>88</v>
       </c>
       <c r="J277" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K277" t="s">
         <v>79</v>
@@ -14421,7 +14436,7 @@
         <v>88</v>
       </c>
       <c r="J278" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K278" t="s">
         <v>79</v>
@@ -14471,7 +14486,7 @@
         <v>88</v>
       </c>
       <c r="J279" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K279" t="s">
         <v>79</v>
@@ -14512,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K280" t="s">
         <v>73</v>
@@ -14562,7 +14577,7 @@
         <v>99</v>
       </c>
       <c r="J281" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K281" t="s">
         <v>73</v>
@@ -14612,7 +14627,7 @@
         <v>75</v>
       </c>
       <c r="J282" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K282" t="s">
         <v>75</v>
@@ -14662,7 +14677,7 @@
         <v>73</v>
       </c>
       <c r="J283" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K283" t="s">
         <v>73</v>
@@ -14712,7 +14727,7 @@
         <v>75</v>
       </c>
       <c r="J284" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K284" t="s">
         <v>75</v>
@@ -14762,7 +14777,7 @@
         <v>90</v>
       </c>
       <c r="J285" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K285" t="s">
         <v>75</v>
@@ -14812,7 +14827,7 @@
         <v>99</v>
       </c>
       <c r="J286" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K286" t="s">
         <v>75</v>
@@ -14862,7 +14877,7 @@
         <v>90</v>
       </c>
       <c r="J287" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K287" t="s">
         <v>75</v>
@@ -14903,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K288" t="s">
         <v>90</v>
@@ -14950,7 +14965,7 @@
         <v>99</v>
       </c>
       <c r="J289" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K289" t="s">
         <v>90</v>
@@ -15000,7 +15015,7 @@
         <v>89</v>
       </c>
       <c r="J290" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K290" t="s">
         <v>89</v>
@@ -15050,7 +15065,7 @@
         <v>90</v>
       </c>
       <c r="J291" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K291" t="s">
         <v>90</v>
@@ -15100,7 +15115,7 @@
         <v>99</v>
       </c>
       <c r="J292" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K292" t="s">
         <v>90</v>
@@ -15141,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K293" t="s">
         <v>88</v>
@@ -15188,7 +15203,7 @@
         <v>88</v>
       </c>
       <c r="J294" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K294" t="s">
         <v>88</v>
@@ -15238,7 +15253,7 @@
         <v>88</v>
       </c>
       <c r="J295" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K295" t="s">
         <v>88</v>
@@ -15288,7 +15303,7 @@
         <v>83</v>
       </c>
       <c r="J296" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K296" t="s">
         <v>88</v>
@@ -15338,7 +15353,7 @@
         <v>76</v>
       </c>
       <c r="J297" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K297" t="s">
         <v>88</v>
@@ -15379,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K298" t="s">
         <v>81</v>
@@ -15429,7 +15444,7 @@
         <v>92</v>
       </c>
       <c r="J299" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K299" t="s">
         <v>92</v>
@@ -15479,7 +15494,7 @@
         <v>81</v>
       </c>
       <c r="J300" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K300" t="s">
         <v>81</v>
@@ -15529,7 +15544,7 @@
         <v>73</v>
       </c>
       <c r="J301" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K301" t="s">
         <v>73</v>
@@ -15579,7 +15594,7 @@
         <v>92</v>
       </c>
       <c r="J302" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K302" t="s">
         <v>73</v>
@@ -15629,7 +15644,7 @@
         <v>81</v>
       </c>
       <c r="J303" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K303" t="s">
         <v>73</v>
@@ -15679,7 +15694,7 @@
         <v>91</v>
       </c>
       <c r="J304" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K304" t="s">
         <v>81</v>
@@ -15729,7 +15744,7 @@
         <v>92</v>
       </c>
       <c r="J305" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K305" t="s">
         <v>92</v>
@@ -15770,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K306" t="s">
         <v>78</v>
@@ -15817,7 +15832,7 @@
         <v>86</v>
       </c>
       <c r="J307" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K307" t="s">
         <v>78</v>
@@ -15864,7 +15879,7 @@
         <v>112</v>
       </c>
       <c r="J308" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K308" t="s">
         <v>78</v>
@@ -15905,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K309" t="s">
         <v>96</v>
@@ -15952,7 +15967,7 @@
         <v>104</v>
       </c>
       <c r="J310" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K310" t="s">
         <v>82</v>
@@ -16002,7 +16017,7 @@
         <v>95</v>
       </c>
       <c r="J311" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K311" t="s">
         <v>95</v>
@@ -16052,7 +16067,7 @@
         <v>82</v>
       </c>
       <c r="J312" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K312" t="s">
         <v>82</v>
@@ -16093,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K313" t="s">
         <v>75</v>
@@ -16140,7 +16155,7 @@
         <v>75</v>
       </c>
       <c r="J314" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K314" t="s">
         <v>75</v>
@@ -16190,7 +16205,7 @@
         <v>103</v>
       </c>
       <c r="J315" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K315" t="s">
         <v>75</v>
@@ -16243,7 +16258,7 @@
         <v>84</v>
       </c>
       <c r="J316" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K316" t="s">
         <v>75</v>
@@ -16293,7 +16308,7 @@
         <v>103</v>
       </c>
       <c r="J317" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K317" t="s">
         <v>75</v>
@@ -16343,7 +16358,7 @@
         <v>94</v>
       </c>
       <c r="J318" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K318" t="s">
         <v>75</v>
@@ -16364,7 +16379,7 @@
         <v>1</v>
       </c>
       <c r="Q318" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="319" spans="1:17">
@@ -16396,7 +16411,7 @@
         <v>84</v>
       </c>
       <c r="J319" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K319" t="s">
         <v>75</v>

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="191">
   <si>
     <t>year</t>
   </si>
@@ -355,40 +355,37 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>['Denmark', 'France']</t>
-  </si>
-  <si>
-    <t>['France', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['West Germany', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'West Germany']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Spain']</t>
+    <t>['France', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'France']</t>
+  </si>
+  <si>
+    <t>['Spain', 'West Germany']</t>
+  </si>
+  <si>
+    <t>['West Germany', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Portugal']</t>
   </si>
   <si>
     <t>['West Germany', 'Italy']</t>
   </si>
   <si>
-    <t>['Soviet Union', 'Republic of Ireland']</t>
+    <t>['Republic of Ireland', 'Soviet Union']</t>
   </si>
   <si>
     <t>['Soviet Union', 'Netherlands']</t>
   </si>
   <si>
-    <t>['France', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['England', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Germany']</t>
+    <t>['Sweden', 'France']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'England']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Denmark']</t>
   </si>
   <si>
     <t>['Germany', 'Netherlands']</t>
@@ -400,7 +397,7 @@
     <t>['Bulgaria', 'Spain']</t>
   </si>
   <si>
-    <t>['France', 'Spain']</t>
+    <t>['Spain', 'France']</t>
   </si>
   <si>
     <t>['England', 'Netherlands']</t>
@@ -409,61 +406,55 @@
     <t>['England', 'Scotland']</t>
   </si>
   <si>
-    <t>['Portugal', 'Croatia']</t>
+    <t>['Croatia', 'Portugal']</t>
   </si>
   <si>
     <t>['Czech Republic', 'Germany']</t>
   </si>
   <si>
-    <t>['Italy', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Belgium']</t>
+    <t>['Germany', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Italy']</t>
   </si>
   <si>
     <t>['Turkey', 'Italy']</t>
   </si>
   <si>
-    <t>['Portugal', 'England']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Romania']</t>
-  </si>
-  <si>
-    <t>['FR Yugoslavia', 'Norway']</t>
-  </si>
-  <si>
-    <t>['FR Yugoslavia', 'Spain']</t>
-  </si>
-  <si>
-    <t>['France', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Greece', 'Spain']</t>
+    <t>['England', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Norway', 'FR Yugoslavia']</t>
+  </si>
+  <si>
+    <t>['Spain', 'FR Yugoslavia']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'France']</t>
   </si>
   <si>
     <t>['Spain', 'Greece']</t>
   </si>
   <si>
-    <t>['Portugal', 'Greece']</t>
+    <t>['Greece', 'Portugal']</t>
   </si>
   <si>
     <t>['England', 'France']</t>
   </si>
   <si>
-    <t>['France', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Turkey']</t>
+    <t>['Croatia', 'France']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Turkey', 'Portugal']</t>
   </si>
   <si>
     <t>['Germany', 'Croatia']</t>
@@ -472,127 +463,127 @@
     <t>['Romania', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Italy', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Russia']</t>
+    <t>['Netherlands', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Spain']</t>
   </si>
   <si>
     <t>['Czech Republic', 'Russia']</t>
   </si>
   <si>
-    <t>['Greece', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Greece', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'Germany']</t>
+    <t>['Russia', 'Greece']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Greece']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Denmark']</t>
   </si>
   <si>
     <t>['Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Italy', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'France', 'Romania']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Albania', 'France']</t>
-  </si>
-  <si>
-    <t>['England', 'Wales', 'Slovakia']</t>
-  </si>
-  <si>
-    <t>['Poland', 'Germany', 'Northern Ireland']</t>
+    <t>['Spain', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Switzerland', 'France']</t>
+  </si>
+  <si>
+    <t>['Albania', 'Switzerland', 'France']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'England', 'Wales']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Northern Ireland', 'Poland']</t>
   </si>
   <si>
     <t>['Czech Republic', 'Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Turkey', 'Spain', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Iceland', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Belgium', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Italy', 'Wales']</t>
-  </si>
-  <si>
-    <t>['Ukraine', 'Austria', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Finland', 'Belgium', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'Belgium', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'England', 'Czech Republic']</t>
+    <t>['Spain', 'Turkey', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Hungary', 'Portugal', 'Iceland']</t>
+  </si>
+  <si>
+    <t>['Iceland', 'Hungary', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Belgium', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Wales', 'Switzerland', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Ukraine', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Belgium', 'Finland']</t>
+  </si>
+  <si>
+    <t>{'Russia', 'Belgium', 'Denmark'}</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Finland', 'Denmark']</t>
   </si>
   <si>
     <t>['Czech Republic', 'England', 'Croatia']</t>
   </si>
   <si>
-    <t>['Spain', 'Slovakia', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'France', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'France', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Scotland', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Germany', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Albania', 'Italy', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Spain', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['France', 'Netherlands', 'Austria']</t>
-  </si>
-  <si>
-    <t>['Austria', 'France', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'France', 'Austria']</t>
-  </si>
-  <si>
-    <t>['Slovenia', 'England', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['Ukraine', 'Romania', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Romania', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Ukraine', 'Slovakia', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Turkey', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Georgia', 'Portugal', 'Turkey']</t>
+    <t>['Spain', 'Sweden', 'Slovakia']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Spain', 'Slovakia']</t>
+  </si>
+  <si>
+    <t>['Germany', 'France', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Hungary', 'France', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Switzerland', 'Scotland']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Hungary', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Albania', 'Spain', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Croatia', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Netherlands', 'France']</t>
+  </si>
+  <si>
+    <t>['England', 'Slovenia', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Ukraine', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Belgium', 'Slovakia']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Turkey', 'Georgia', 'Portugal']</t>
   </si>
   <si>
     <t>tie</t>
@@ -2946,7 +2937,7 @@
         <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K41" t="s">
         <v>81</v>
@@ -2996,7 +2987,7 @@
         <v>80</v>
       </c>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K42" t="s">
         <v>81</v>
@@ -3046,7 +3037,7 @@
         <v>81</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
@@ -3096,7 +3087,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K44" t="s">
         <v>81</v>
@@ -3146,7 +3137,7 @@
         <v>90</v>
       </c>
       <c r="J45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K45" t="s">
         <v>81</v>
@@ -3196,7 +3187,7 @@
         <v>81</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K46" t="s">
         <v>81</v>
@@ -3246,7 +3237,7 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
@@ -3287,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K48" t="s">
         <v>108</v>
@@ -3337,7 +3328,7 @@
         <v>88</v>
       </c>
       <c r="J49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s">
         <v>88</v>
@@ -3387,7 +3378,7 @@
         <v>73</v>
       </c>
       <c r="J50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K50" t="s">
         <v>73</v>
@@ -3437,7 +3428,7 @@
         <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s">
         <v>73</v>
@@ -3487,7 +3478,7 @@
         <v>73</v>
       </c>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s">
         <v>73</v>
@@ -3537,7 +3528,7 @@
         <v>108</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s">
         <v>73</v>
@@ -3587,7 +3578,7 @@
         <v>88</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s">
         <v>73</v>
@@ -3637,7 +3628,7 @@
         <v>73</v>
       </c>
       <c r="J55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K55" t="s">
         <v>73</v>
@@ -3678,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K56" t="s">
         <v>78</v>
@@ -3725,7 +3716,7 @@
         <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K57" t="s">
         <v>78</v>
@@ -3775,7 +3766,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K58" t="s">
         <v>78</v>
@@ -3825,7 +3816,7 @@
         <v>80</v>
       </c>
       <c r="J59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K59" t="s">
         <v>78</v>
@@ -3875,7 +3866,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K60" t="s">
         <v>78</v>
@@ -3925,7 +3916,7 @@
         <v>78</v>
       </c>
       <c r="J61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s">
         <v>78</v>
@@ -3975,7 +3966,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s">
         <v>78</v>
@@ -4025,7 +4016,7 @@
         <v>81</v>
       </c>
       <c r="J63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s">
         <v>78</v>
@@ -4066,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K64" t="s">
         <v>83</v>
@@ -4113,7 +4104,7 @@
         <v>75</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K65" t="s">
         <v>83</v>
@@ -4160,7 +4151,7 @@
         <v>72</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K66" t="s">
         <v>83</v>
@@ -4210,7 +4201,7 @@
         <v>75</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K67" t="s">
         <v>75</v>
@@ -4260,7 +4251,7 @@
         <v>75</v>
       </c>
       <c r="J68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K68" t="s">
         <v>75</v>
@@ -4310,7 +4301,7 @@
         <v>72</v>
       </c>
       <c r="J69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s">
         <v>75</v>
@@ -4360,7 +4351,7 @@
         <v>72</v>
       </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s">
         <v>75</v>
@@ -4410,7 +4401,7 @@
         <v>75</v>
       </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s">
         <v>75</v>
@@ -4460,7 +4451,7 @@
         <v>72</v>
       </c>
       <c r="J72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s">
         <v>75</v>
@@ -4501,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s">
         <v>90</v>
@@ -4548,7 +4539,7 @@
         <v>90</v>
       </c>
       <c r="J74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s">
         <v>90</v>
@@ -4598,7 +4589,7 @@
         <v>94</v>
       </c>
       <c r="J75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K75" t="s">
         <v>90</v>
@@ -4651,7 +4642,7 @@
         <v>94</v>
       </c>
       <c r="J76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s">
         <v>90</v>
@@ -4704,7 +4695,7 @@
         <v>85</v>
       </c>
       <c r="J77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s">
         <v>90</v>
@@ -4757,7 +4748,7 @@
         <v>85</v>
       </c>
       <c r="J78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s">
         <v>90</v>
@@ -4807,7 +4798,7 @@
         <v>85</v>
       </c>
       <c r="J79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K79" t="s">
         <v>90</v>
@@ -4857,7 +4848,7 @@
         <v>94</v>
       </c>
       <c r="J80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K80" t="s">
         <v>90</v>
@@ -4898,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s">
         <v>76</v>
@@ -4945,7 +4936,7 @@
         <v>104</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s">
         <v>76</v>
@@ -4998,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="J83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s">
         <v>76</v>
@@ -5051,7 +5042,7 @@
         <v>84</v>
       </c>
       <c r="J84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" t="s">
         <v>76</v>
@@ -5101,7 +5092,7 @@
         <v>84</v>
       </c>
       <c r="J85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K85" t="s">
         <v>76</v>
@@ -5151,7 +5142,7 @@
         <v>79</v>
       </c>
       <c r="J86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K86" t="s">
         <v>76</v>
@@ -5201,7 +5192,7 @@
         <v>76</v>
       </c>
       <c r="J87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K87" t="s">
         <v>76</v>
@@ -5242,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K88" t="s">
         <v>75</v>
@@ -5289,7 +5280,7 @@
         <v>90</v>
       </c>
       <c r="J89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K89" t="s">
         <v>75</v>
@@ -5342,7 +5333,7 @@
         <v>82</v>
       </c>
       <c r="J90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K90" t="s">
         <v>75</v>
@@ -5392,7 +5383,7 @@
         <v>75</v>
       </c>
       <c r="J91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K91" t="s">
         <v>75</v>
@@ -5442,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K92" t="s">
         <v>75</v>
@@ -5495,7 +5486,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K93" t="s">
         <v>75</v>
@@ -5545,7 +5536,7 @@
         <v>82</v>
       </c>
       <c r="J94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K94" t="s">
         <v>75</v>
@@ -5598,7 +5589,7 @@
         <v>75</v>
       </c>
       <c r="J95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K95" t="s">
         <v>75</v>
@@ -5651,7 +5642,7 @@
         <v>75</v>
       </c>
       <c r="J96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K96" t="s">
         <v>75</v>
@@ -5704,7 +5695,7 @@
         <v>82</v>
       </c>
       <c r="J97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K97" t="s">
         <v>75</v>
@@ -5745,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K98" t="s">
         <v>87</v>
@@ -5792,7 +5783,7 @@
         <v>109</v>
       </c>
       <c r="J99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K99" t="s">
         <v>87</v>
@@ -5842,7 +5833,7 @@
         <v>87</v>
       </c>
       <c r="J100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K100" t="s">
         <v>87</v>
@@ -5892,7 +5883,7 @@
         <v>88</v>
       </c>
       <c r="J101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K101" t="s">
         <v>87</v>
@@ -5942,7 +5933,7 @@
         <v>87</v>
       </c>
       <c r="J102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K102" t="s">
         <v>87</v>
@@ -5992,7 +5983,7 @@
         <v>88</v>
       </c>
       <c r="J103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K103" t="s">
         <v>87</v>
@@ -6042,7 +6033,7 @@
         <v>87</v>
       </c>
       <c r="J104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K104" t="s">
         <v>87</v>
@@ -6092,7 +6083,7 @@
         <v>88</v>
       </c>
       <c r="J105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K105" t="s">
         <v>87</v>
@@ -6142,7 +6133,7 @@
         <v>88</v>
       </c>
       <c r="J106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K106" t="s">
         <v>88</v>
@@ -6183,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K107" t="s">
         <v>73</v>
@@ -6230,7 +6221,7 @@
         <v>94</v>
       </c>
       <c r="J108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K108" t="s">
         <v>73</v>
@@ -6280,7 +6271,7 @@
         <v>73</v>
       </c>
       <c r="J109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K109" t="s">
         <v>73</v>
@@ -6330,7 +6321,7 @@
         <v>81</v>
       </c>
       <c r="J110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K110" t="s">
         <v>73</v>
@@ -6380,7 +6371,7 @@
         <v>73</v>
       </c>
       <c r="J111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K111" t="s">
         <v>73</v>
@@ -6430,7 +6421,7 @@
         <v>81</v>
       </c>
       <c r="J112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K112" t="s">
         <v>73</v>
@@ -6480,7 +6471,7 @@
         <v>81</v>
       </c>
       <c r="J113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K113" t="s">
         <v>81</v>
@@ -6530,7 +6521,7 @@
         <v>94</v>
       </c>
       <c r="J114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K114" t="s">
         <v>81</v>
@@ -6580,7 +6571,7 @@
         <v>94</v>
       </c>
       <c r="J115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K115" t="s">
         <v>81</v>
@@ -6621,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K116" t="s">
         <v>93</v>
@@ -6668,7 +6659,7 @@
         <v>75</v>
       </c>
       <c r="J117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K117" t="s">
         <v>93</v>
@@ -6718,7 +6709,7 @@
         <v>85</v>
       </c>
       <c r="J118" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K118" t="s">
         <v>88</v>
@@ -6768,7 +6759,7 @@
         <v>85</v>
       </c>
       <c r="J119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K119" t="s">
         <v>88</v>
@@ -6818,7 +6809,7 @@
         <v>93</v>
       </c>
       <c r="J120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K120" t="s">
         <v>88</v>
@@ -6868,7 +6859,7 @@
         <v>75</v>
       </c>
       <c r="J121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K121" t="s">
         <v>75</v>
@@ -6909,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K122" t="s">
         <v>73</v>
@@ -6959,7 +6950,7 @@
         <v>83</v>
       </c>
       <c r="J123" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K123" t="s">
         <v>73</v>
@@ -7009,7 +7000,7 @@
         <v>73</v>
       </c>
       <c r="J124" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K124" t="s">
         <v>73</v>
@@ -7059,7 +7050,7 @@
         <v>89</v>
       </c>
       <c r="J125" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K125" t="s">
         <v>73</v>
@@ -7109,7 +7100,7 @@
         <v>78</v>
       </c>
       <c r="J126" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K126" t="s">
         <v>73</v>
@@ -7159,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K127" t="s">
         <v>78</v>
@@ -7209,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="J128" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K128" t="s">
         <v>78</v>
@@ -7259,7 +7250,7 @@
         <v>83</v>
       </c>
       <c r="J129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K129" t="s">
         <v>78</v>
@@ -7309,7 +7300,7 @@
         <v>73</v>
       </c>
       <c r="J130" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K130" t="s">
         <v>73</v>
@@ -7359,7 +7350,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K131" t="s">
         <v>73</v>
@@ -7409,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="J132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K132" t="s">
         <v>73</v>
@@ -7841,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K141" t="s">
         <v>94</v>
@@ -7888,7 +7879,7 @@
         <v>110</v>
       </c>
       <c r="J142" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K142" t="s">
         <v>94</v>
@@ -7938,7 +7929,7 @@
         <v>90</v>
       </c>
       <c r="J143" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K143" t="s">
         <v>94</v>
@@ -7988,7 +7979,7 @@
         <v>81</v>
       </c>
       <c r="J144" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K144" t="s">
         <v>94</v>
@@ -8038,7 +8029,7 @@
         <v>94</v>
       </c>
       <c r="J145" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K145" t="s">
         <v>94</v>
@@ -8088,7 +8079,7 @@
         <v>81</v>
       </c>
       <c r="J146" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K146" t="s">
         <v>94</v>
@@ -8138,7 +8129,7 @@
         <v>94</v>
       </c>
       <c r="J147" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K147" t="s">
         <v>94</v>
@@ -8188,7 +8179,7 @@
         <v>81</v>
       </c>
       <c r="J148" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K148" t="s">
         <v>94</v>
@@ -8229,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K149" t="s">
         <v>75</v>
@@ -8276,7 +8267,7 @@
         <v>75</v>
       </c>
       <c r="J150" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K150" t="s">
         <v>75</v>
@@ -8326,7 +8317,7 @@
         <v>94</v>
       </c>
       <c r="J151" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K151" t="s">
         <v>75</v>
@@ -8376,7 +8367,7 @@
         <v>94</v>
       </c>
       <c r="J152" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K152" t="s">
         <v>75</v>
@@ -8426,7 +8417,7 @@
         <v>89</v>
       </c>
       <c r="J153" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K153" t="s">
         <v>75</v>
@@ -8476,7 +8467,7 @@
         <v>84</v>
       </c>
       <c r="J154" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K154" t="s">
         <v>75</v>
@@ -8526,7 +8517,7 @@
         <v>89</v>
       </c>
       <c r="J155" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K155" t="s">
         <v>75</v>
@@ -8576,7 +8567,7 @@
         <v>84</v>
       </c>
       <c r="J156" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K156" t="s">
         <v>75</v>
@@ -8626,7 +8617,7 @@
         <v>84</v>
       </c>
       <c r="J157" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K157" t="s">
         <v>75</v>
@@ -8667,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K158" t="s">
         <v>83</v>
@@ -8714,7 +8705,7 @@
         <v>83</v>
       </c>
       <c r="J159" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K159" t="s">
         <v>83</v>
@@ -8761,7 +8752,7 @@
         <v>90</v>
       </c>
       <c r="J160" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K160" t="s">
         <v>83</v>
@@ -8811,7 +8802,7 @@
         <v>90</v>
       </c>
       <c r="J161" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K161" t="s">
         <v>83</v>
@@ -8861,7 +8852,7 @@
         <v>83</v>
       </c>
       <c r="J162" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K162" t="s">
         <v>83</v>
@@ -8902,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K163" t="s">
         <v>81</v>
@@ -8949,7 +8940,7 @@
         <v>82</v>
       </c>
       <c r="J164" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K164" t="s">
         <v>81</v>
@@ -8996,7 +8987,7 @@
         <v>76</v>
       </c>
       <c r="J165" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K165" t="s">
         <v>81</v>
@@ -9046,7 +9037,7 @@
         <v>76</v>
       </c>
       <c r="J166" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K166" t="s">
         <v>81</v>
@@ -9096,7 +9087,7 @@
         <v>81</v>
       </c>
       <c r="J167" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K167" t="s">
         <v>81</v>
@@ -9146,7 +9137,7 @@
         <v>76</v>
       </c>
       <c r="J168" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K168" t="s">
         <v>81</v>
@@ -9196,7 +9187,7 @@
         <v>81</v>
       </c>
       <c r="J169" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K169" t="s">
         <v>81</v>
@@ -9237,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K170" t="s">
         <v>88</v>
@@ -9284,7 +9275,7 @@
         <v>79</v>
       </c>
       <c r="J171" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K171" t="s">
         <v>88</v>
@@ -9334,7 +9325,7 @@
         <v>85</v>
       </c>
       <c r="J172" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K172" t="s">
         <v>88</v>
@@ -9384,7 +9375,7 @@
         <v>93</v>
       </c>
       <c r="J173" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K173" t="s">
         <v>88</v>
@@ -9434,7 +9425,7 @@
         <v>85</v>
       </c>
       <c r="J174" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K174" t="s">
         <v>88</v>
@@ -9484,7 +9475,7 @@
         <v>88</v>
       </c>
       <c r="J175" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K175" t="s">
         <v>88</v>
@@ -9534,7 +9525,7 @@
         <v>88</v>
       </c>
       <c r="J176" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K176" t="s">
         <v>88</v>
@@ -9575,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K177" t="s">
         <v>85</v>
@@ -9622,7 +9613,7 @@
         <v>91</v>
       </c>
       <c r="J178" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K178" t="s">
         <v>85</v>
@@ -9669,7 +9660,7 @@
         <v>85</v>
       </c>
       <c r="J179" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K179" t="s">
         <v>85</v>
@@ -9719,7 +9710,7 @@
         <v>93</v>
       </c>
       <c r="J180" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K180" t="s">
         <v>85</v>
@@ -9769,7 +9760,7 @@
         <v>94</v>
       </c>
       <c r="J181" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K181" t="s">
         <v>94</v>
@@ -9810,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K182" t="s">
         <v>90</v>
@@ -9860,7 +9851,7 @@
         <v>81</v>
       </c>
       <c r="J183" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K183" t="s">
         <v>90</v>
@@ -9910,7 +9901,7 @@
         <v>90</v>
       </c>
       <c r="J184" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K184" t="s">
         <v>90</v>
@@ -9960,7 +9951,7 @@
         <v>72</v>
       </c>
       <c r="J185" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K185" t="s">
         <v>90</v>
@@ -10010,7 +10001,7 @@
         <v>75</v>
       </c>
       <c r="J186" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K186" t="s">
         <v>90</v>
@@ -10060,7 +10051,7 @@
         <v>75</v>
       </c>
       <c r="J187" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K187" t="s">
         <v>90</v>
@@ -10113,7 +10104,7 @@
         <v>90</v>
       </c>
       <c r="J188" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K188" t="s">
         <v>90</v>
@@ -10154,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K189" t="s">
         <v>88</v>
@@ -10201,7 +10192,7 @@
         <v>88</v>
       </c>
       <c r="J190" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K190" t="s">
         <v>88</v>
@@ -10248,7 +10239,7 @@
         <v>77</v>
       </c>
       <c r="J191" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K191" t="s">
         <v>88</v>
@@ -10298,7 +10289,7 @@
         <v>76</v>
       </c>
       <c r="J192" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K192" t="s">
         <v>88</v>
@@ -10348,7 +10339,7 @@
         <v>88</v>
       </c>
       <c r="J193" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K193" t="s">
         <v>88</v>
@@ -10398,7 +10389,7 @@
         <v>76</v>
       </c>
       <c r="J194" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K194" t="s">
         <v>88</v>
@@ -10439,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K195" t="s">
         <v>73</v>
@@ -10486,7 +10477,7 @@
         <v>96</v>
       </c>
       <c r="J196" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K196" t="s">
         <v>73</v>
@@ -10533,7 +10524,7 @@
         <v>73</v>
       </c>
       <c r="J197" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K197" t="s">
         <v>73</v>
@@ -10583,7 +10574,7 @@
         <v>78</v>
       </c>
       <c r="J198" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K198" t="s">
         <v>78</v>
@@ -10633,7 +10624,7 @@
         <v>79</v>
       </c>
       <c r="J199" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K199" t="s">
         <v>78</v>
@@ -10683,7 +10674,7 @@
         <v>79</v>
       </c>
       <c r="J200" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K200" t="s">
         <v>78</v>
@@ -10724,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K201" t="s">
         <v>73</v>
@@ -10771,7 +10762,7 @@
         <v>102</v>
       </c>
       <c r="J202" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K202" t="s">
         <v>73</v>
@@ -10818,7 +10809,7 @@
         <v>73</v>
       </c>
       <c r="J203" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K203" t="s">
         <v>73</v>
@@ -10868,7 +10859,7 @@
         <v>102</v>
       </c>
       <c r="J204" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K204" t="s">
         <v>73</v>
@@ -10909,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K205" t="s">
         <v>78</v>
@@ -10956,7 +10947,7 @@
         <v>111</v>
       </c>
       <c r="J206" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K206" t="s">
         <v>78</v>
@@ -11006,7 +10997,7 @@
         <v>78</v>
       </c>
       <c r="J207" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K207" t="s">
         <v>78</v>
@@ -11059,7 +11050,7 @@
         <v>111</v>
       </c>
       <c r="J208" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K208" t="s">
         <v>111</v>
@@ -11109,7 +11100,7 @@
         <v>111</v>
       </c>
       <c r="J209" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K209" t="s">
         <v>111</v>
@@ -11159,7 +11150,7 @@
         <v>111</v>
       </c>
       <c r="J210" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K210" t="s">
         <v>111</v>
@@ -11200,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K211" t="s">
         <v>90</v>
@@ -11247,7 +11238,7 @@
         <v>91</v>
       </c>
       <c r="J212" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K212" t="s">
         <v>90</v>
@@ -11294,7 +11285,7 @@
         <v>90</v>
       </c>
       <c r="J213" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K213" t="s">
         <v>90</v>
@@ -11344,7 +11335,7 @@
         <v>90</v>
       </c>
       <c r="J214" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K214" t="s">
         <v>90</v>
@@ -11394,7 +11385,7 @@
         <v>91</v>
       </c>
       <c r="J215" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K215" t="s">
         <v>90</v>
@@ -11435,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K216" t="s">
         <v>88</v>
@@ -11482,7 +11473,7 @@
         <v>84</v>
       </c>
       <c r="J217" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K217" t="s">
         <v>88</v>
@@ -11532,7 +11523,7 @@
         <v>88</v>
       </c>
       <c r="J218" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K218" t="s">
         <v>88</v>
@@ -11582,7 +11573,7 @@
         <v>84</v>
       </c>
       <c r="J219" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K219" t="s">
         <v>88</v>
@@ -11632,7 +11623,7 @@
         <v>83</v>
       </c>
       <c r="J220" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K220" t="s">
         <v>88</v>
@@ -11682,7 +11673,7 @@
         <v>84</v>
       </c>
       <c r="J221" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K221" t="s">
         <v>88</v>
@@ -11732,7 +11723,7 @@
         <v>83</v>
       </c>
       <c r="J222" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K222" t="s">
         <v>83</v>
@@ -11773,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K223" t="s">
         <v>99</v>
@@ -11823,7 +11814,7 @@
         <v>98</v>
       </c>
       <c r="J224" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K224" t="s">
         <v>99</v>
@@ -11873,7 +11864,7 @@
         <v>99</v>
       </c>
       <c r="J225" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K225" t="s">
         <v>99</v>
@@ -11923,7 +11914,7 @@
         <v>75</v>
       </c>
       <c r="J226" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K226" t="s">
         <v>99</v>
@@ -11973,7 +11964,7 @@
         <v>99</v>
       </c>
       <c r="J227" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K227" t="s">
         <v>99</v>
@@ -12023,7 +12014,7 @@
         <v>75</v>
       </c>
       <c r="J228" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K228" t="s">
         <v>99</v>
@@ -12073,7 +12064,7 @@
         <v>99</v>
       </c>
       <c r="J229" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K229" t="s">
         <v>99</v>
@@ -12123,7 +12114,7 @@
         <v>92</v>
       </c>
       <c r="J230" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K230" t="s">
         <v>99</v>
@@ -12173,7 +12164,7 @@
         <v>75</v>
       </c>
       <c r="J231" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K231" t="s">
         <v>99</v>
@@ -12223,7 +12214,7 @@
         <v>98</v>
       </c>
       <c r="J232" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K232" t="s">
         <v>99</v>
@@ -12264,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K233" t="s">
         <v>76</v>
@@ -12311,7 +12302,7 @@
         <v>77</v>
       </c>
       <c r="J234" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K234" t="s">
         <v>76</v>
@@ -12358,7 +12349,7 @@
         <v>104</v>
       </c>
       <c r="J235" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K235" t="s">
         <v>76</v>
@@ -12408,7 +12399,7 @@
         <v>104</v>
       </c>
       <c r="J236" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K236" t="s">
         <v>76</v>
@@ -12458,7 +12449,7 @@
         <v>77</v>
       </c>
       <c r="J237" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K237" t="s">
         <v>76</v>
@@ -12508,7 +12499,7 @@
         <v>89</v>
       </c>
       <c r="J238" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K238" t="s">
         <v>76</v>
@@ -12558,7 +12549,7 @@
         <v>89</v>
       </c>
       <c r="J239" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K239" t="s">
         <v>76</v>
@@ -12608,7 +12599,7 @@
         <v>84</v>
       </c>
       <c r="J240" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K240" t="s">
         <v>76</v>
@@ -12658,7 +12649,7 @@
         <v>89</v>
       </c>
       <c r="J241" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K241" t="s">
         <v>76</v>
@@ -12699,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K242" t="s">
         <v>76</v>
@@ -12746,7 +12737,7 @@
         <v>111</v>
       </c>
       <c r="J243" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K243" t="s">
         <v>76</v>
@@ -12796,7 +12787,7 @@
         <v>76</v>
       </c>
       <c r="J244" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K244" t="s">
         <v>76</v>
@@ -12837,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K245" t="s">
         <v>81</v>
@@ -12884,7 +12875,7 @@
         <v>92</v>
       </c>
       <c r="J246" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K246" t="s">
         <v>81</v>
@@ -12934,7 +12925,7 @@
         <v>92</v>
       </c>
       <c r="J247" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K247" t="s">
         <v>81</v>
@@ -12981,7 +12972,7 @@
         <v>81</v>
       </c>
       <c r="J248" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K248" t="s">
         <v>81</v>
@@ -13031,7 +13022,7 @@
         <v>81</v>
       </c>
       <c r="J249" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K249" t="s">
         <v>81</v>
@@ -13081,7 +13072,7 @@
         <v>81</v>
       </c>
       <c r="J250" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K250" t="s">
         <v>81</v>
@@ -13131,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="J251" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K251" t="s">
         <v>81</v>
@@ -13172,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K252" t="s">
         <v>104</v>
@@ -13219,7 +13210,7 @@
         <v>104</v>
       </c>
       <c r="J253" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K253" t="s">
         <v>104</v>
@@ -13254,7 +13245,7 @@
         <v>71</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F254">
         <v>74</v>
@@ -13269,7 +13260,7 @@
         <v>104</v>
       </c>
       <c r="J254" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K254" t="s">
         <v>104</v>
@@ -13278,10 +13269,10 @@
         <v>72</v>
       </c>
       <c r="M254" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="N254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O254">
         <v>0</v>
@@ -13304,7 +13295,7 @@
         <v>71</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F255">
         <v>81</v>
@@ -13319,7 +13310,7 @@
         <v>104</v>
       </c>
       <c r="J255" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K255" t="s">
         <v>104</v>
@@ -13328,16 +13319,16 @@
         <v>72</v>
       </c>
       <c r="M255" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="N255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O255">
         <v>0</v>
       </c>
       <c r="P255">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -13369,7 +13360,7 @@
         <v>72</v>
       </c>
       <c r="J256" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K256" t="s">
         <v>104</v>
@@ -13419,7 +13410,7 @@
         <v>72</v>
       </c>
       <c r="J257" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K257" t="s">
         <v>104</v>
@@ -13469,7 +13460,7 @@
         <v>85</v>
       </c>
       <c r="J258" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K258" t="s">
         <v>104</v>
@@ -13504,7 +13495,7 @@
         <v>69</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F259">
         <v>79</v>
@@ -13519,7 +13510,7 @@
         <v>72</v>
       </c>
       <c r="J259" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K259" t="s">
         <v>104</v>
@@ -13531,7 +13522,7 @@
         <v>101</v>
       </c>
       <c r="N259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O259">
         <v>0</v>
@@ -13554,7 +13545,7 @@
         <v>69</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F260">
         <v>82</v>
@@ -13569,7 +13560,7 @@
         <v>72</v>
       </c>
       <c r="J260" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K260" t="s">
         <v>104</v>
@@ -13578,7 +13569,7 @@
         <v>72</v>
       </c>
       <c r="M260" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -13587,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="P260">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -13610,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K261" t="s">
         <v>94</v>
@@ -13657,7 +13648,7 @@
         <v>78</v>
       </c>
       <c r="J262" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K262" t="s">
         <v>94</v>
@@ -13707,7 +13698,7 @@
         <v>78</v>
       </c>
       <c r="J263" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K263" t="s">
         <v>78</v>
@@ -13757,7 +13748,7 @@
         <v>83</v>
       </c>
       <c r="J264" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K264" t="s">
         <v>78</v>
@@ -13807,7 +13798,7 @@
         <v>80</v>
       </c>
       <c r="J265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K265" t="s">
         <v>78</v>
@@ -13857,7 +13848,7 @@
         <v>83</v>
       </c>
       <c r="J266" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K266" t="s">
         <v>78</v>
@@ -13907,7 +13898,7 @@
         <v>83</v>
       </c>
       <c r="J267" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K267" t="s">
         <v>78</v>
@@ -13957,7 +13948,7 @@
         <v>79</v>
       </c>
       <c r="J268" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K268" t="s">
         <v>79</v>
@@ -14007,7 +13998,7 @@
         <v>79</v>
       </c>
       <c r="J269" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K269" t="s">
         <v>79</v>
@@ -14057,7 +14048,7 @@
         <v>91</v>
       </c>
       <c r="J270" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K270" t="s">
         <v>79</v>
@@ -14107,7 +14098,7 @@
         <v>91</v>
       </c>
       <c r="J271" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K271" t="s">
         <v>88</v>
@@ -14157,7 +14148,7 @@
         <v>79</v>
       </c>
       <c r="J272" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K272" t="s">
         <v>79</v>
@@ -14198,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K273" t="s">
         <v>79</v>
@@ -14245,7 +14236,7 @@
         <v>88</v>
       </c>
       <c r="J274" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K274" t="s">
         <v>79</v>
@@ -14295,7 +14286,7 @@
         <v>88</v>
       </c>
       <c r="J275" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K275" t="s">
         <v>79</v>
@@ -14345,7 +14336,7 @@
         <v>88</v>
       </c>
       <c r="J276" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K276" t="s">
         <v>79</v>
@@ -14395,7 +14386,7 @@
         <v>88</v>
       </c>
       <c r="J277" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K277" t="s">
         <v>79</v>
@@ -14445,7 +14436,7 @@
         <v>88</v>
       </c>
       <c r="J278" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K278" t="s">
         <v>79</v>
@@ -14495,7 +14486,7 @@
         <v>88</v>
       </c>
       <c r="J279" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K279" t="s">
         <v>79</v>
@@ -14536,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K280" t="s">
         <v>73</v>
@@ -14586,7 +14577,7 @@
         <v>99</v>
       </c>
       <c r="J281" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K281" t="s">
         <v>73</v>
@@ -14636,7 +14627,7 @@
         <v>75</v>
       </c>
       <c r="J282" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K282" t="s">
         <v>75</v>
@@ -14686,7 +14677,7 @@
         <v>73</v>
       </c>
       <c r="J283" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K283" t="s">
         <v>73</v>
@@ -14736,7 +14727,7 @@
         <v>75</v>
       </c>
       <c r="J284" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K284" t="s">
         <v>75</v>
@@ -14786,7 +14777,7 @@
         <v>90</v>
       </c>
       <c r="J285" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K285" t="s">
         <v>75</v>
@@ -14836,7 +14827,7 @@
         <v>99</v>
       </c>
       <c r="J286" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K286" t="s">
         <v>75</v>
@@ -14886,7 +14877,7 @@
         <v>90</v>
       </c>
       <c r="J287" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K287" t="s">
         <v>75</v>
@@ -14927,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K288" t="s">
         <v>90</v>
@@ -14974,7 +14965,7 @@
         <v>99</v>
       </c>
       <c r="J289" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K289" t="s">
         <v>90</v>
@@ -15024,7 +15015,7 @@
         <v>89</v>
       </c>
       <c r="J290" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K290" t="s">
         <v>89</v>
@@ -15074,7 +15065,7 @@
         <v>90</v>
       </c>
       <c r="J291" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K291" t="s">
         <v>90</v>
@@ -15124,7 +15115,7 @@
         <v>99</v>
       </c>
       <c r="J292" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K292" t="s">
         <v>90</v>
@@ -15165,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K293" t="s">
         <v>88</v>
@@ -15212,7 +15203,7 @@
         <v>88</v>
       </c>
       <c r="J294" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K294" t="s">
         <v>88</v>
@@ -15262,7 +15253,7 @@
         <v>88</v>
       </c>
       <c r="J295" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K295" t="s">
         <v>88</v>
@@ -15312,7 +15303,7 @@
         <v>83</v>
       </c>
       <c r="J296" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K296" t="s">
         <v>88</v>
@@ -15362,7 +15353,7 @@
         <v>76</v>
       </c>
       <c r="J297" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K297" t="s">
         <v>88</v>
@@ -15403,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K298" t="s">
         <v>81</v>
@@ -15453,7 +15444,7 @@
         <v>92</v>
       </c>
       <c r="J299" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K299" t="s">
         <v>92</v>
@@ -15503,7 +15494,7 @@
         <v>81</v>
       </c>
       <c r="J300" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K300" t="s">
         <v>81</v>
@@ -15553,7 +15544,7 @@
         <v>73</v>
       </c>
       <c r="J301" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K301" t="s">
         <v>73</v>
@@ -15603,7 +15594,7 @@
         <v>92</v>
       </c>
       <c r="J302" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K302" t="s">
         <v>73</v>
@@ -15653,7 +15644,7 @@
         <v>81</v>
       </c>
       <c r="J303" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K303" t="s">
         <v>73</v>
@@ -15703,7 +15694,7 @@
         <v>91</v>
       </c>
       <c r="J304" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K304" t="s">
         <v>81</v>
@@ -15753,7 +15744,7 @@
         <v>92</v>
       </c>
       <c r="J305" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K305" t="s">
         <v>92</v>
@@ -15794,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K306" t="s">
         <v>78</v>
@@ -15841,7 +15832,7 @@
         <v>86</v>
       </c>
       <c r="J307" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K307" t="s">
         <v>78</v>
@@ -15888,7 +15879,7 @@
         <v>112</v>
       </c>
       <c r="J308" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K308" t="s">
         <v>78</v>
@@ -15929,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K309" t="s">
         <v>96</v>
@@ -15976,7 +15967,7 @@
         <v>104</v>
       </c>
       <c r="J310" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K310" t="s">
         <v>82</v>
@@ -16026,7 +16017,7 @@
         <v>95</v>
       </c>
       <c r="J311" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K311" t="s">
         <v>95</v>
@@ -16076,7 +16067,7 @@
         <v>82</v>
       </c>
       <c r="J312" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K312" t="s">
         <v>82</v>
@@ -16117,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K313" t="s">
         <v>75</v>
@@ -16164,7 +16155,7 @@
         <v>75</v>
       </c>
       <c r="J314" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K314" t="s">
         <v>75</v>
@@ -16214,7 +16205,7 @@
         <v>103</v>
       </c>
       <c r="J315" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K315" t="s">
         <v>75</v>
@@ -16267,7 +16258,7 @@
         <v>84</v>
       </c>
       <c r="J316" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K316" t="s">
         <v>75</v>
@@ -16317,7 +16308,7 @@
         <v>103</v>
       </c>
       <c r="J317" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K317" t="s">
         <v>75</v>
@@ -16367,7 +16358,7 @@
         <v>94</v>
       </c>
       <c r="J318" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K318" t="s">
         <v>75</v>
@@ -16388,7 +16379,7 @@
         <v>1</v>
       </c>
       <c r="Q318" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="319" spans="1:17">
@@ -16420,7 +16411,7 @@
         <v>84</v>
       </c>
       <c r="J319" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K319" t="s">
         <v>75</v>

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1319,7 +1319,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1386,7 +1386,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1453,7 +1453,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1658,7 +1658,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1725,7 +1725,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1796,7 +1796,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3129,7 +3129,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3196,7 +3196,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4312,7 +4312,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4379,7 +4379,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4864,7 +4864,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4931,7 +4931,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4998,7 +4998,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6047,7 +6047,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6114,7 +6114,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6536,7 +6536,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6603,7 +6603,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7873,7 +7873,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7940,7 +7940,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11406,7 +11406,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11473,7 +11473,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11540,7 +11540,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -11741,7 +11741,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11808,7 +11808,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -11875,7 +11875,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12218,7 +12218,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12285,7 +12285,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12699,7 +12699,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12766,7 +12766,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -12833,7 +12833,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -12953,7 +12953,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
         <v>72</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Greece', 'Czech Republic']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -12985,22 +12985,22 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="N181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O181" t="n">
         <v>0</v>
       </c>
       <c r="P181" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q181" t="inlineStr"/>
     </row>
@@ -13105,7 +13105,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
         <v>28</v>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13328,16 +13328,16 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="N186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O186" t="n">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O187" t="n">
         <v>2</v>
@@ -13523,7 +13523,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13590,7 +13590,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13657,7 +13657,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -13799,7 +13799,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14335,7 +14335,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14402,7 +14402,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14469,7 +14469,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14599,7 +14599,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14666,7 +14666,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14737,7 +14737,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15013,7 +15013,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15080,7 +15080,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15147,7 +15147,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15348,7 +15348,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15415,7 +15415,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15829,7 +15829,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16527,7 +16527,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16594,7 +16594,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Belgium']</t>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Belgium']</t>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -16874,7 +16874,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17146,7 +17146,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17213,7 +17213,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17284,7 +17284,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17343,7 +17343,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17410,7 +17410,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17548,7 +17548,7 @@
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -17958,7 +17958,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18029,7 +18029,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18443,7 +18443,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18510,7 +18510,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19279,7 +19279,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19346,7 +19346,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -19760,7 +19760,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20316,7 +20316,7 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20383,7 +20383,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20454,7 +20454,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -20655,7 +20655,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -20722,7 +20722,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -20793,7 +20793,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -20994,7 +20994,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21065,7 +21065,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21491,7 +21491,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21550,7 +21550,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -21617,7 +21617,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21684,7 +21684,7 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21743,7 +21743,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -21810,7 +21810,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22011,7 +22011,7 @@
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22078,7 +22078,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22149,7 +22149,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22224,7 +22224,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22295,7 +22295,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
@@ -13154,7 +13154,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F184" t="n">
         <v>19</v>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13186,16 +13186,16 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184" t="n">
         <v>0</v>
@@ -13225,7 +13225,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F185" t="n">
         <v>24</v>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O185" t="n">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F186" t="n">
         <v>28</v>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13328,16 +13328,16 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
       <c r="N186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O186" t="n">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F187" t="n">
         <v>74</v>
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O187" t="n">
         <v>2</v>
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F188" t="n">
         <v>80</v>

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
@@ -550,7 +550,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1319,7 +1319,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1386,7 +1386,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1453,7 +1453,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1658,7 +1658,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1725,7 +1725,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1796,7 +1796,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3129,7 +3129,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3196,7 +3196,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4312,7 +4312,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4379,7 +4379,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5483,7 +5483,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5550,7 +5550,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6047,7 +6047,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6114,7 +6114,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6536,7 +6536,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6603,7 +6603,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7250,7 +7250,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7317,7 +7317,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8496,7 +8496,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8563,7 +8563,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -10231,7 +10231,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10298,7 +10298,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10440,7 +10440,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10783,7 +10783,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -10850,7 +10850,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11406,7 +11406,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11473,7 +11473,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11540,7 +11540,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -11741,7 +11741,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11808,7 +11808,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -11875,7 +11875,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12218,7 +12218,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12285,7 +12285,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13034,7 +13034,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13105,7 +13105,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13523,7 +13523,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13590,7 +13590,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13657,7 +13657,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -13799,7 +13799,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14335,7 +14335,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14402,7 +14402,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14469,7 +14469,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14540,7 +14540,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14599,7 +14599,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14666,7 +14666,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14737,7 +14737,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15013,7 +15013,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15080,7 +15080,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15147,7 +15147,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15348,7 +15348,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15415,7 +15415,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15829,7 +15829,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16527,7 +16527,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16594,7 +16594,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -16874,7 +16874,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17146,7 +17146,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17213,7 +17213,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17284,7 +17284,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17343,7 +17343,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17410,7 +17410,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17548,7 +17548,7 @@
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -17958,7 +17958,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18443,7 +18443,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18510,7 +18510,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19279,7 +19279,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19346,7 +19346,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -19760,7 +19760,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19954,7 +19954,7 @@
         <v>1</v>
       </c>
       <c r="F283" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20328,7 +20328,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20387,7 +20387,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20454,7 +20454,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -20667,7 +20667,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -20726,7 +20726,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -20793,7 +20793,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21006,7 +21006,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21065,7 +21065,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21491,7 +21491,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -21621,7 +21621,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21688,7 +21688,7 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21755,7 +21755,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -21814,7 +21814,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Romania', 'Ukraine', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Ukraine']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -21881,7 +21881,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22082,7 +22082,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22149,7 +22149,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22220,7 +22220,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22295,7 +22295,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22437,7 +22437,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22512,7 +22512,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa_men.xlsx
@@ -550,7 +550,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1658,7 +1658,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1725,7 +1725,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1796,7 +1796,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2143,7 +2143,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2210,7 +2210,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4864,7 +4864,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4931,7 +4931,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4998,7 +4998,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6047,7 +6047,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6114,7 +6114,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6536,7 +6536,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6603,7 +6603,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7250,7 +7250,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7317,7 +7317,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8906,7 +8906,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9675,7 +9675,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10783,7 +10783,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -10850,7 +10850,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11406,7 +11406,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11473,7 +11473,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11540,7 +11540,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13034,7 +13034,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13929,7 +13929,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -13996,7 +13996,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14063,7 +14063,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14599,7 +14599,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14666,7 +14666,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14737,7 +14737,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15013,7 +15013,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15080,7 +15080,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15147,7 +15147,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15348,7 +15348,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15415,7 +15415,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15829,7 +15829,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16527,7 +16527,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16594,7 +16594,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -16874,7 +16874,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17146,7 +17146,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17213,7 +17213,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17284,7 +17284,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17343,7 +17343,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17410,7 +17410,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17548,7 +17548,7 @@
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -17820,7 +17820,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -17887,7 +17887,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -17958,7 +17958,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18029,7 +18029,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19279,7 +19279,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19346,7 +19346,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -19760,7 +19760,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20328,7 +20328,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20387,7 +20387,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20454,7 +20454,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -20667,7 +20667,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -20726,7 +20726,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Albania', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -20793,7 +20793,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Albania', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21006,7 +21006,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21065,7 +21065,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21491,7 +21491,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -21621,7 +21621,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21631,12 +21631,12 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
       <c r="N307" t="n">
@@ -21688,7 +21688,7 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21698,12 +21698,12 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="M308" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
       <c r="N308" t="n">
@@ -21755,7 +21755,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -21765,12 +21765,12 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
       <c r="N309" t="n">
@@ -22082,7 +22082,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22149,7 +22149,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22220,7 +22220,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22295,7 +22295,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22437,7 +22437,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22512,7 +22512,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
